--- a/Excel-XLSX/UN-BUL.xlsx
+++ b/Excel-XLSX/UN-BUL.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="1411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="1409">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>5C13nT</t>
+    <t>9A3pbP</t>
   </si>
   <si>
     <t>1992</t>
@@ -4113,6 +4113,9 @@
     <t>2024</t>
   </si>
   <si>
+    <t>1295</t>
+  </si>
+  <si>
     <t>1050</t>
   </si>
   <si>
@@ -4212,43 +4215,34 @@
     <t>1083</t>
   </si>
   <si>
+    <t>31877</t>
+  </si>
+  <si>
+    <t>4036</t>
+  </si>
+  <si>
     <t>1084</t>
   </si>
   <si>
     <t>1085</t>
   </si>
   <si>
-    <t>31004</t>
-  </si>
-  <si>
-    <t>2626</t>
-  </si>
-  <si>
     <t>1086</t>
   </si>
   <si>
     <t>1088</t>
   </si>
   <si>
+    <t>74322</t>
+  </si>
+  <si>
+    <t>29000</t>
+  </si>
+  <si>
     <t>1089</t>
   </si>
   <si>
     <t>1090</t>
-  </si>
-  <si>
-    <t>61070</t>
-  </si>
-  <si>
-    <t>1100</t>
-  </si>
-  <si>
-    <t>1091</t>
-  </si>
-  <si>
-    <t>1092</t>
-  </si>
-  <si>
-    <t>1093</t>
   </si>
 </sst>
 </file>
@@ -4633,7 +4627,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V1094"/>
+  <dimension ref="A1:V1091"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -76017,7 +76011,7 @@
         <v>491</v>
       </c>
       <c r="O1050" s="2" t="s">
-        <v>1132</v>
+        <v>1365</v>
       </c>
       <c r="P1050" s="2" t="s">
         <v>33</v>
@@ -76052,7 +76046,7 @@
         <v>22</v>
       </c>
       <c r="D1051" s="2" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="E1051" s="2" t="s">
         <v>1364</v>
@@ -76085,7 +76079,7 @@
         <v>33</v>
       </c>
       <c r="O1051" s="2" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="P1051" s="2" t="s">
         <v>33</v>
@@ -76120,7 +76114,7 @@
         <v>22</v>
       </c>
       <c r="D1052" s="2" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="E1052" s="2" t="s">
         <v>1364</v>
@@ -76150,10 +76144,10 @@
         <v>31</v>
       </c>
       <c r="N1052" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="O1052" s="2" t="s">
-        <v>255</v>
+        <v>32</v>
       </c>
       <c r="P1052" s="2" t="s">
         <v>33</v>
@@ -76188,7 +76182,7 @@
         <v>22</v>
       </c>
       <c r="D1053" s="2" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="E1053" s="2" t="s">
         <v>1364</v>
@@ -76221,7 +76215,7 @@
         <v>83</v>
       </c>
       <c r="O1053" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="P1053" s="2" t="s">
         <v>33</v>
@@ -76256,7 +76250,7 @@
         <v>22</v>
       </c>
       <c r="D1054" s="2" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="E1054" s="2" t="s">
         <v>1364</v>
@@ -76324,7 +76318,7 @@
         <v>22</v>
       </c>
       <c r="D1055" s="2" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="E1055" s="2" t="s">
         <v>1364</v>
@@ -76357,7 +76351,7 @@
         <v>51</v>
       </c>
       <c r="O1055" s="2" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="P1055" s="2" t="s">
         <v>33</v>
@@ -76392,7 +76386,7 @@
         <v>22</v>
       </c>
       <c r="D1056" s="2" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="E1056" s="2" t="s">
         <v>1364</v>
@@ -76422,7 +76416,7 @@
         <v>31</v>
       </c>
       <c r="N1056" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="O1056" s="2" t="s">
         <v>51</v>
@@ -76460,7 +76454,7 @@
         <v>22</v>
       </c>
       <c r="D1057" s="2" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="E1057" s="2" t="s">
         <v>1364</v>
@@ -76490,7 +76484,7 @@
         <v>31</v>
       </c>
       <c r="N1057" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="O1057" s="2" t="s">
         <v>33</v>
@@ -76528,7 +76522,7 @@
         <v>22</v>
       </c>
       <c r="D1058" s="2" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="E1058" s="2" t="s">
         <v>1364</v>
@@ -76596,22 +76590,22 @@
         <v>22</v>
       </c>
       <c r="D1059" s="2" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="E1059" s="2" t="s">
         <v>1364</v>
       </c>
       <c r="F1059" s="2" t="s">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="G1059" s="1" t="s">
-        <v>1322</v>
+        <v>1327</v>
       </c>
       <c r="H1059" s="1" t="s">
-        <v>1323</v>
+        <v>1328</v>
       </c>
       <c r="I1059" s="1" t="s">
-        <v>1324</v>
+        <v>1328</v>
       </c>
       <c r="J1059" s="2" t="s">
         <v>28</v>
@@ -76626,7 +76620,7 @@
         <v>31</v>
       </c>
       <c r="N1059" s="2" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="O1059" s="2" t="s">
         <v>51</v>
@@ -76664,22 +76658,22 @@
         <v>22</v>
       </c>
       <c r="D1060" s="2" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="E1060" s="2" t="s">
         <v>1364</v>
       </c>
       <c r="F1060" s="2" t="s">
-        <v>179</v>
+        <v>56</v>
       </c>
       <c r="G1060" s="1" t="s">
-        <v>1263</v>
+        <v>330</v>
       </c>
       <c r="H1060" s="1" t="s">
-        <v>1264</v>
+        <v>331</v>
       </c>
       <c r="I1060" s="1" t="s">
-        <v>1264</v>
+        <v>332</v>
       </c>
       <c r="J1060" s="2" t="s">
         <v>28</v>
@@ -76694,10 +76688,10 @@
         <v>31</v>
       </c>
       <c r="N1060" s="2" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="O1060" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="P1060" s="2" t="s">
         <v>33</v>
@@ -76732,22 +76726,22 @@
         <v>22</v>
       </c>
       <c r="D1061" s="2" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="E1061" s="2" t="s">
         <v>1364</v>
       </c>
       <c r="F1061" s="2" t="s">
-        <v>180</v>
+        <v>58</v>
       </c>
       <c r="G1061" s="1" t="s">
-        <v>1327</v>
+        <v>59</v>
       </c>
       <c r="H1061" s="1" t="s">
-        <v>1328</v>
+        <v>60</v>
       </c>
       <c r="I1061" s="1" t="s">
-        <v>1328</v>
+        <v>60</v>
       </c>
       <c r="J1061" s="2" t="s">
         <v>28</v>
@@ -76762,10 +76756,10 @@
         <v>31</v>
       </c>
       <c r="N1061" s="2" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="O1061" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="P1061" s="2" t="s">
         <v>33</v>
@@ -76800,22 +76794,22 @@
         <v>22</v>
       </c>
       <c r="D1062" s="2" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="E1062" s="2" t="s">
         <v>1364</v>
       </c>
       <c r="F1062" s="2" t="s">
-        <v>56</v>
+        <v>154</v>
       </c>
       <c r="G1062" s="1" t="s">
-        <v>330</v>
+        <v>284</v>
       </c>
       <c r="H1062" s="1" t="s">
-        <v>331</v>
+        <v>285</v>
       </c>
       <c r="I1062" s="1" t="s">
-        <v>332</v>
+        <v>285</v>
       </c>
       <c r="J1062" s="2" t="s">
         <v>28</v>
@@ -76830,10 +76824,10 @@
         <v>31</v>
       </c>
       <c r="N1062" s="2" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="O1062" s="2" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="P1062" s="2" t="s">
         <v>33</v>
@@ -76868,22 +76862,22 @@
         <v>22</v>
       </c>
       <c r="D1063" s="2" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="E1063" s="2" t="s">
         <v>1364</v>
       </c>
       <c r="F1063" s="2" t="s">
-        <v>58</v>
+        <v>208</v>
       </c>
       <c r="G1063" s="1" t="s">
-        <v>59</v>
+        <v>334</v>
       </c>
       <c r="H1063" s="1" t="s">
-        <v>60</v>
+        <v>335</v>
       </c>
       <c r="I1063" s="1" t="s">
-        <v>60</v>
+        <v>335</v>
       </c>
       <c r="J1063" s="2" t="s">
         <v>28</v>
@@ -76898,7 +76892,7 @@
         <v>31</v>
       </c>
       <c r="N1063" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="O1063" s="2" t="s">
         <v>33</v>
@@ -76936,22 +76930,22 @@
         <v>22</v>
       </c>
       <c r="D1064" s="2" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="E1064" s="2" t="s">
         <v>1364</v>
       </c>
       <c r="F1064" s="2" t="s">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="G1064" s="1" t="s">
-        <v>284</v>
+        <v>149</v>
       </c>
       <c r="H1064" s="1" t="s">
-        <v>285</v>
+        <v>150</v>
       </c>
       <c r="I1064" s="1" t="s">
-        <v>285</v>
+        <v>151</v>
       </c>
       <c r="J1064" s="2" t="s">
         <v>28</v>
@@ -76966,10 +76960,10 @@
         <v>31</v>
       </c>
       <c r="N1064" s="2" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="O1064" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="P1064" s="2" t="s">
         <v>33</v>
@@ -77004,22 +76998,22 @@
         <v>22</v>
       </c>
       <c r="D1065" s="2" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="E1065" s="2" t="s">
         <v>1364</v>
       </c>
       <c r="F1065" s="2" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="G1065" s="1" t="s">
-        <v>334</v>
+        <v>1333</v>
       </c>
       <c r="H1065" s="1" t="s">
-        <v>335</v>
+        <v>1334</v>
       </c>
       <c r="I1065" s="1" t="s">
-        <v>335</v>
+        <v>1335</v>
       </c>
       <c r="J1065" s="2" t="s">
         <v>28</v>
@@ -77072,22 +77066,22 @@
         <v>22</v>
       </c>
       <c r="D1066" s="2" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="E1066" s="2" t="s">
         <v>1364</v>
       </c>
       <c r="F1066" s="2" t="s">
-        <v>84</v>
+        <v>228</v>
       </c>
       <c r="G1066" s="1" t="s">
-        <v>149</v>
+        <v>865</v>
       </c>
       <c r="H1066" s="1" t="s">
-        <v>150</v>
+        <v>866</v>
       </c>
       <c r="I1066" s="1" t="s">
-        <v>151</v>
+        <v>867</v>
       </c>
       <c r="J1066" s="2" t="s">
         <v>28</v>
@@ -77102,7 +77096,7 @@
         <v>31</v>
       </c>
       <c r="N1066" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="O1066" s="2" t="s">
         <v>33</v>
@@ -77146,16 +77140,16 @@
         <v>1364</v>
       </c>
       <c r="F1067" s="2" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="G1067" s="1" t="s">
-        <v>1333</v>
+        <v>288</v>
       </c>
       <c r="H1067" s="1" t="s">
-        <v>1334</v>
+        <v>289</v>
       </c>
       <c r="I1067" s="1" t="s">
-        <v>1335</v>
+        <v>289</v>
       </c>
       <c r="J1067" s="2" t="s">
         <v>28</v>
@@ -77170,10 +77164,10 @@
         <v>31</v>
       </c>
       <c r="N1067" s="2" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="O1067" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="P1067" s="2" t="s">
         <v>33</v>
@@ -77208,22 +77202,22 @@
         <v>22</v>
       </c>
       <c r="D1068" s="2" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="E1068" s="2" t="s">
         <v>1364</v>
       </c>
       <c r="F1068" s="2" t="s">
-        <v>228</v>
+        <v>63</v>
       </c>
       <c r="G1068" s="1" t="s">
-        <v>865</v>
+        <v>64</v>
       </c>
       <c r="H1068" s="1" t="s">
-        <v>866</v>
+        <v>65</v>
       </c>
       <c r="I1068" s="1" t="s">
-        <v>867</v>
+        <v>65</v>
       </c>
       <c r="J1068" s="2" t="s">
         <v>28</v>
@@ -77238,10 +77232,10 @@
         <v>31</v>
       </c>
       <c r="N1068" s="2" t="s">
-        <v>57</v>
+        <v>254</v>
       </c>
       <c r="O1068" s="2" t="s">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="P1068" s="2" t="s">
         <v>33</v>
@@ -77276,22 +77270,22 @@
         <v>22</v>
       </c>
       <c r="D1069" s="2" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="E1069" s="2" t="s">
         <v>1364</v>
       </c>
       <c r="F1069" s="2" t="s">
-        <v>229</v>
+        <v>66</v>
       </c>
       <c r="G1069" s="1" t="s">
-        <v>288</v>
+        <v>67</v>
       </c>
       <c r="H1069" s="1" t="s">
-        <v>289</v>
+        <v>68</v>
       </c>
       <c r="I1069" s="1" t="s">
-        <v>289</v>
+        <v>68</v>
       </c>
       <c r="J1069" s="2" t="s">
         <v>28</v>
@@ -77306,10 +77300,10 @@
         <v>31</v>
       </c>
       <c r="N1069" s="2" t="s">
-        <v>51</v>
+        <v>830</v>
       </c>
       <c r="O1069" s="2" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="P1069" s="2" t="s">
         <v>33</v>
@@ -77344,22 +77338,22 @@
         <v>22</v>
       </c>
       <c r="D1070" s="2" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="E1070" s="2" t="s">
         <v>1364</v>
       </c>
       <c r="F1070" s="2" t="s">
-        <v>63</v>
+        <v>234</v>
       </c>
       <c r="G1070" s="1" t="s">
-        <v>64</v>
+        <v>1277</v>
       </c>
       <c r="H1070" s="1" t="s">
-        <v>65</v>
+        <v>1278</v>
       </c>
       <c r="I1070" s="1" t="s">
-        <v>65</v>
+        <v>1278</v>
       </c>
       <c r="J1070" s="2" t="s">
         <v>28</v>
@@ -77374,10 +77368,10 @@
         <v>31</v>
       </c>
       <c r="N1070" s="2" t="s">
-        <v>246</v>
+        <v>159</v>
       </c>
       <c r="O1070" s="2" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="P1070" s="2" t="s">
         <v>33</v>
@@ -77412,22 +77406,22 @@
         <v>22</v>
       </c>
       <c r="D1071" s="2" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="E1071" s="2" t="s">
         <v>1364</v>
       </c>
       <c r="F1071" s="2" t="s">
-        <v>66</v>
+        <v>209</v>
       </c>
       <c r="G1071" s="1" t="s">
-        <v>67</v>
+        <v>210</v>
       </c>
       <c r="H1071" s="1" t="s">
-        <v>68</v>
+        <v>211</v>
       </c>
       <c r="I1071" s="1" t="s">
-        <v>68</v>
+        <v>211</v>
       </c>
       <c r="J1071" s="2" t="s">
         <v>28</v>
@@ -77442,10 +77436,10 @@
         <v>31</v>
       </c>
       <c r="N1071" s="2" t="s">
-        <v>836</v>
+        <v>51</v>
       </c>
       <c r="O1071" s="2" t="s">
-        <v>252</v>
+        <v>33</v>
       </c>
       <c r="P1071" s="2" t="s">
         <v>33</v>
@@ -77480,22 +77474,22 @@
         <v>22</v>
       </c>
       <c r="D1072" s="2" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="E1072" s="2" t="s">
         <v>1364</v>
       </c>
       <c r="F1072" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="G1072" s="1" t="s">
-        <v>1277</v>
+        <v>1072</v>
       </c>
       <c r="H1072" s="1" t="s">
-        <v>1278</v>
+        <v>1073</v>
       </c>
       <c r="I1072" s="1" t="s">
-        <v>1278</v>
+        <v>1073</v>
       </c>
       <c r="J1072" s="2" t="s">
         <v>28</v>
@@ -77510,7 +77504,7 @@
         <v>31</v>
       </c>
       <c r="N1072" s="2" t="s">
-        <v>138</v>
+        <v>51</v>
       </c>
       <c r="O1072" s="2" t="s">
         <v>51</v>
@@ -77548,22 +77542,22 @@
         <v>22</v>
       </c>
       <c r="D1073" s="2" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="E1073" s="2" t="s">
         <v>1364</v>
       </c>
       <c r="F1073" s="2" t="s">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="G1073" s="1" t="s">
-        <v>210</v>
+        <v>792</v>
       </c>
       <c r="H1073" s="1" t="s">
-        <v>211</v>
+        <v>793</v>
       </c>
       <c r="I1073" s="1" t="s">
-        <v>211</v>
+        <v>793</v>
       </c>
       <c r="J1073" s="2" t="s">
         <v>28</v>
@@ -77578,10 +77572,10 @@
         <v>31</v>
       </c>
       <c r="N1073" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1073" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="O1073" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="P1073" s="2" t="s">
         <v>33</v>
@@ -77616,22 +77610,22 @@
         <v>22</v>
       </c>
       <c r="D1074" s="2" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="E1074" s="2" t="s">
         <v>1364</v>
       </c>
       <c r="F1074" s="2" t="s">
-        <v>238</v>
+        <v>160</v>
       </c>
       <c r="G1074" s="1" t="s">
-        <v>1072</v>
+        <v>161</v>
       </c>
       <c r="H1074" s="1" t="s">
-        <v>1073</v>
+        <v>162</v>
       </c>
       <c r="I1074" s="1" t="s">
-        <v>1073</v>
+        <v>163</v>
       </c>
       <c r="J1074" s="2" t="s">
         <v>28</v>
@@ -77646,10 +77640,10 @@
         <v>31</v>
       </c>
       <c r="N1074" s="2" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="O1074" s="2" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="P1074" s="2" t="s">
         <v>33</v>
@@ -77684,22 +77678,22 @@
         <v>22</v>
       </c>
       <c r="D1075" s="2" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="E1075" s="2" t="s">
         <v>1364</v>
       </c>
       <c r="F1075" s="2" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c r="G1075" s="1" t="s">
-        <v>161</v>
+        <v>298</v>
       </c>
       <c r="H1075" s="1" t="s">
-        <v>162</v>
+        <v>299</v>
       </c>
       <c r="I1075" s="1" t="s">
-        <v>163</v>
+        <v>299</v>
       </c>
       <c r="J1075" s="2" t="s">
         <v>28</v>
@@ -77714,10 +77708,10 @@
         <v>31</v>
       </c>
       <c r="N1075" s="2" t="s">
-        <v>113</v>
+        <v>178</v>
       </c>
       <c r="O1075" s="2" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="P1075" s="2" t="s">
         <v>33</v>
@@ -77752,22 +77746,22 @@
         <v>22</v>
       </c>
       <c r="D1076" s="2" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="E1076" s="2" t="s">
         <v>1364</v>
       </c>
       <c r="F1076" s="2" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="G1076" s="1" t="s">
-        <v>298</v>
+        <v>877</v>
       </c>
       <c r="H1076" s="1" t="s">
-        <v>299</v>
+        <v>878</v>
       </c>
       <c r="I1076" s="1" t="s">
-        <v>299</v>
+        <v>878</v>
       </c>
       <c r="J1076" s="2" t="s">
         <v>28</v>
@@ -77782,7 +77776,7 @@
         <v>31</v>
       </c>
       <c r="N1076" s="2" t="s">
-        <v>141</v>
+        <v>57</v>
       </c>
       <c r="O1076" s="2" t="s">
         <v>33</v>
@@ -77820,22 +77814,22 @@
         <v>22</v>
       </c>
       <c r="D1077" s="2" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="E1077" s="2" t="s">
         <v>1364</v>
       </c>
       <c r="F1077" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="G1077" s="1" t="s">
-        <v>877</v>
+        <v>649</v>
       </c>
       <c r="H1077" s="1" t="s">
-        <v>878</v>
+        <v>650</v>
       </c>
       <c r="I1077" s="1" t="s">
-        <v>878</v>
+        <v>651</v>
       </c>
       <c r="J1077" s="2" t="s">
         <v>28</v>
@@ -77850,10 +77844,10 @@
         <v>31</v>
       </c>
       <c r="N1077" s="2" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="O1077" s="2" t="s">
-        <v>33</v>
+        <v>154</v>
       </c>
       <c r="P1077" s="2" t="s">
         <v>33</v>
@@ -77888,22 +77882,22 @@
         <v>22</v>
       </c>
       <c r="D1078" s="2" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="E1078" s="2" t="s">
         <v>1364</v>
       </c>
       <c r="F1078" s="2" t="s">
-        <v>275</v>
+        <v>165</v>
       </c>
       <c r="G1078" s="1" t="s">
-        <v>649</v>
+        <v>166</v>
       </c>
       <c r="H1078" s="1" t="s">
-        <v>650</v>
+        <v>167</v>
       </c>
       <c r="I1078" s="1" t="s">
-        <v>651</v>
+        <v>168</v>
       </c>
       <c r="J1078" s="2" t="s">
         <v>28</v>
@@ -77918,10 +77912,10 @@
         <v>31</v>
       </c>
       <c r="N1078" s="2" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="O1078" s="2" t="s">
-        <v>193</v>
+        <v>33</v>
       </c>
       <c r="P1078" s="2" t="s">
         <v>33</v>
@@ -77956,22 +77950,22 @@
         <v>22</v>
       </c>
       <c r="D1079" s="2" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="E1079" s="2" t="s">
         <v>1364</v>
       </c>
       <c r="F1079" s="2" t="s">
-        <v>165</v>
+        <v>106</v>
       </c>
       <c r="G1079" s="1" t="s">
-        <v>166</v>
+        <v>107</v>
       </c>
       <c r="H1079" s="1" t="s">
-        <v>167</v>
+        <v>108</v>
       </c>
       <c r="I1079" s="1" t="s">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="J1079" s="2" t="s">
         <v>28</v>
@@ -77986,10 +77980,10 @@
         <v>31</v>
       </c>
       <c r="N1079" s="2" t="s">
-        <v>51</v>
+        <v>141</v>
       </c>
       <c r="O1079" s="2" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="P1079" s="2" t="s">
         <v>33</v>
@@ -78024,22 +78018,22 @@
         <v>22</v>
       </c>
       <c r="D1080" s="2" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="E1080" s="2" t="s">
         <v>1364</v>
       </c>
       <c r="F1080" s="2" t="s">
-        <v>106</v>
+        <v>305</v>
       </c>
       <c r="G1080" s="1" t="s">
-        <v>107</v>
+        <v>306</v>
       </c>
       <c r="H1080" s="1" t="s">
-        <v>108</v>
+        <v>307</v>
       </c>
       <c r="I1080" s="1" t="s">
-        <v>108</v>
+        <v>307</v>
       </c>
       <c r="J1080" s="2" t="s">
         <v>28</v>
@@ -78054,10 +78048,10 @@
         <v>31</v>
       </c>
       <c r="N1080" s="2" t="s">
-        <v>141</v>
+        <v>452</v>
       </c>
       <c r="O1080" s="2" t="s">
-        <v>121</v>
+        <v>220</v>
       </c>
       <c r="P1080" s="2" t="s">
         <v>33</v>
@@ -78092,22 +78086,22 @@
         <v>22</v>
       </c>
       <c r="D1081" s="2" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="E1081" s="2" t="s">
         <v>1364</v>
       </c>
       <c r="F1081" s="2" t="s">
-        <v>305</v>
+        <v>71</v>
       </c>
       <c r="G1081" s="1" t="s">
-        <v>306</v>
+        <v>72</v>
       </c>
       <c r="H1081" s="1" t="s">
-        <v>307</v>
+        <v>73</v>
       </c>
       <c r="I1081" s="1" t="s">
-        <v>307</v>
+        <v>73</v>
       </c>
       <c r="J1081" s="2" t="s">
         <v>28</v>
@@ -78122,10 +78116,10 @@
         <v>31</v>
       </c>
       <c r="N1081" s="2" t="s">
-        <v>172</v>
+        <v>94</v>
       </c>
       <c r="O1081" s="2" t="s">
-        <v>243</v>
+        <v>33</v>
       </c>
       <c r="P1081" s="2" t="s">
         <v>33</v>
@@ -78160,22 +78154,22 @@
         <v>22</v>
       </c>
       <c r="D1082" s="2" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="E1082" s="2" t="s">
         <v>1364</v>
       </c>
       <c r="F1082" s="2" t="s">
-        <v>326</v>
+        <v>174</v>
       </c>
       <c r="G1082" s="1" t="s">
-        <v>889</v>
+        <v>175</v>
       </c>
       <c r="H1082" s="1" t="s">
-        <v>890</v>
+        <v>176</v>
       </c>
       <c r="I1082" s="1" t="s">
-        <v>890</v>
+        <v>177</v>
       </c>
       <c r="J1082" s="2" t="s">
         <v>28</v>
@@ -78190,10 +78184,10 @@
         <v>31</v>
       </c>
       <c r="N1082" s="2" t="s">
-        <v>33</v>
+        <v>1032</v>
       </c>
       <c r="O1082" s="2" t="s">
-        <v>51</v>
+        <v>171</v>
       </c>
       <c r="P1082" s="2" t="s">
         <v>33</v>
@@ -78205,7 +78199,7 @@
         <v>33</v>
       </c>
       <c r="S1082" s="2" t="s">
-        <v>33</v>
+        <v>1128</v>
       </c>
       <c r="T1082" s="2" t="s">
         <v>33</v>
@@ -78228,22 +78222,22 @@
         <v>22</v>
       </c>
       <c r="D1083" s="2" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="E1083" s="2" t="s">
         <v>1364</v>
       </c>
       <c r="F1083" s="2" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="G1083" s="1" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="H1083" s="1" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="I1083" s="1" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="J1083" s="2" t="s">
         <v>28</v>
@@ -78258,10 +78252,10 @@
         <v>31</v>
       </c>
       <c r="N1083" s="2" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="O1083" s="2" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="P1083" s="2" t="s">
         <v>33</v>
@@ -78296,22 +78290,22 @@
         <v>22</v>
       </c>
       <c r="D1084" s="2" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="E1084" s="2" t="s">
         <v>1364</v>
       </c>
       <c r="F1084" s="2" t="s">
-        <v>174</v>
+        <v>32</v>
       </c>
       <c r="G1084" s="1" t="s">
-        <v>175</v>
+        <v>122</v>
       </c>
       <c r="H1084" s="1" t="s">
-        <v>176</v>
+        <v>123</v>
       </c>
       <c r="I1084" s="1" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
       <c r="J1084" s="2" t="s">
         <v>28</v>
@@ -78326,10 +78320,10 @@
         <v>31</v>
       </c>
       <c r="N1084" s="2" t="s">
-        <v>1036</v>
+        <v>1399</v>
       </c>
       <c r="O1084" s="2" t="s">
-        <v>198</v>
+        <v>1400</v>
       </c>
       <c r="P1084" s="2" t="s">
         <v>33</v>
@@ -78341,7 +78335,7 @@
         <v>33</v>
       </c>
       <c r="S1084" s="2" t="s">
-        <v>1314</v>
+        <v>33</v>
       </c>
       <c r="T1084" s="2" t="s">
         <v>33</v>
@@ -78364,22 +78358,22 @@
         <v>22</v>
       </c>
       <c r="D1085" s="2" t="s">
-        <v>1398</v>
+        <v>1401</v>
       </c>
       <c r="E1085" s="2" t="s">
         <v>1364</v>
       </c>
       <c r="F1085" s="2" t="s">
-        <v>117</v>
+        <v>261</v>
       </c>
       <c r="G1085" s="1" t="s">
-        <v>118</v>
+        <v>262</v>
       </c>
       <c r="H1085" s="1" t="s">
-        <v>119</v>
+        <v>263</v>
       </c>
       <c r="I1085" s="1" t="s">
-        <v>120</v>
+        <v>264</v>
       </c>
       <c r="J1085" s="2" t="s">
         <v>28</v>
@@ -78394,10 +78388,10 @@
         <v>31</v>
       </c>
       <c r="N1085" s="2" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="O1085" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="P1085" s="2" t="s">
         <v>33</v>
@@ -78432,22 +78426,22 @@
         <v>22</v>
       </c>
       <c r="D1086" s="2" t="s">
-        <v>1399</v>
+        <v>1402</v>
       </c>
       <c r="E1086" s="2" t="s">
         <v>1364</v>
       </c>
       <c r="F1086" s="2" t="s">
-        <v>32</v>
+        <v>352</v>
       </c>
       <c r="G1086" s="1" t="s">
-        <v>122</v>
+        <v>1300</v>
       </c>
       <c r="H1086" s="1" t="s">
-        <v>123</v>
+        <v>1301</v>
       </c>
       <c r="I1086" s="1" t="s">
-        <v>123</v>
+        <v>1301</v>
       </c>
       <c r="J1086" s="2" t="s">
         <v>28</v>
@@ -78462,10 +78456,10 @@
         <v>31</v>
       </c>
       <c r="N1086" s="2" t="s">
-        <v>1400</v>
+        <v>78</v>
       </c>
       <c r="O1086" s="2" t="s">
-        <v>1401</v>
+        <v>33</v>
       </c>
       <c r="P1086" s="2" t="s">
         <v>33</v>
@@ -78500,22 +78494,22 @@
         <v>22</v>
       </c>
       <c r="D1087" s="2" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="E1087" s="2" t="s">
         <v>1364</v>
       </c>
       <c r="F1087" s="2" t="s">
-        <v>125</v>
+        <v>225</v>
       </c>
       <c r="G1087" s="1" t="s">
-        <v>126</v>
+        <v>226</v>
       </c>
       <c r="H1087" s="1" t="s">
-        <v>127</v>
+        <v>227</v>
       </c>
       <c r="I1087" s="1" t="s">
-        <v>127</v>
+        <v>227</v>
       </c>
       <c r="J1087" s="2" t="s">
         <v>28</v>
@@ -78530,10 +78524,10 @@
         <v>31</v>
       </c>
       <c r="N1087" s="2" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="O1087" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="P1087" s="2" t="s">
         <v>33</v>
@@ -78574,16 +78568,16 @@
         <v>1364</v>
       </c>
       <c r="F1088" s="2" t="s">
-        <v>352</v>
+        <v>128</v>
       </c>
       <c r="G1088" s="1" t="s">
-        <v>1300</v>
+        <v>129</v>
       </c>
       <c r="H1088" s="1" t="s">
-        <v>1301</v>
+        <v>130</v>
       </c>
       <c r="I1088" s="1" t="s">
-        <v>1301</v>
+        <v>130</v>
       </c>
       <c r="J1088" s="2" t="s">
         <v>28</v>
@@ -78601,7 +78595,7 @@
         <v>78</v>
       </c>
       <c r="O1088" s="2" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="P1088" s="2" t="s">
         <v>33</v>
@@ -78636,22 +78630,22 @@
         <v>22</v>
       </c>
       <c r="D1089" s="2" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="E1089" s="2" t="s">
         <v>1364</v>
       </c>
       <c r="F1089" s="2" t="s">
-        <v>225</v>
+        <v>363</v>
       </c>
       <c r="G1089" s="1" t="s">
-        <v>226</v>
+        <v>523</v>
       </c>
       <c r="H1089" s="1" t="s">
-        <v>227</v>
+        <v>524</v>
       </c>
       <c r="I1089" s="1" t="s">
-        <v>227</v>
+        <v>524</v>
       </c>
       <c r="J1089" s="2" t="s">
         <v>28</v>
@@ -78666,13 +78660,13 @@
         <v>31</v>
       </c>
       <c r="N1089" s="2" t="s">
+        <v>1405</v>
+      </c>
+      <c r="O1089" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O1089" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="P1089" s="2" t="s">
-        <v>33</v>
+        <v>1406</v>
       </c>
       <c r="Q1089" s="2" t="s">
         <v>33</v>
@@ -78704,22 +78698,22 @@
         <v>22</v>
       </c>
       <c r="D1090" s="2" t="s">
-        <v>1404</v>
+        <v>1407</v>
       </c>
       <c r="E1090" s="2" t="s">
         <v>1364</v>
       </c>
       <c r="F1090" s="2" t="s">
-        <v>128</v>
+        <v>366</v>
       </c>
       <c r="G1090" s="1" t="s">
-        <v>129</v>
+        <v>526</v>
       </c>
       <c r="H1090" s="1" t="s">
-        <v>130</v>
+        <v>527</v>
       </c>
       <c r="I1090" s="1" t="s">
-        <v>130</v>
+        <v>527</v>
       </c>
       <c r="J1090" s="2" t="s">
         <v>28</v>
@@ -78734,10 +78728,10 @@
         <v>31</v>
       </c>
       <c r="N1090" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="O1090" s="2" t="s">
-        <v>113</v>
+        <v>33</v>
       </c>
       <c r="P1090" s="2" t="s">
         <v>33</v>
@@ -78772,22 +78766,22 @@
         <v>22</v>
       </c>
       <c r="D1091" s="2" t="s">
-        <v>1405</v>
+        <v>1408</v>
       </c>
       <c r="E1091" s="2" t="s">
         <v>1364</v>
       </c>
       <c r="F1091" s="2" t="s">
-        <v>363</v>
+        <v>132</v>
       </c>
       <c r="G1091" s="1" t="s">
-        <v>523</v>
+        <v>133</v>
       </c>
       <c r="H1091" s="1" t="s">
-        <v>524</v>
+        <v>134</v>
       </c>
       <c r="I1091" s="1" t="s">
-        <v>524</v>
+        <v>134</v>
       </c>
       <c r="J1091" s="2" t="s">
         <v>28</v>
@@ -78802,13 +78796,13 @@
         <v>31</v>
       </c>
       <c r="N1091" s="2" t="s">
-        <v>1406</v>
+        <v>159</v>
       </c>
       <c r="O1091" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="P1091" s="2" t="s">
-        <v>1407</v>
+        <v>33</v>
       </c>
       <c r="Q1091" s="2" t="s">
         <v>33</v>
@@ -78826,210 +78820,6 @@
         <v>34</v>
       </c>
       <c r="V1091" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="1092">
-      <c r="A1092" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1092" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1092" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1092" s="2" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E1092" s="2" t="s">
-        <v>1364</v>
-      </c>
-      <c r="F1092" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="G1092" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="H1092" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="I1092" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="J1092" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1092" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1092" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1092" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1092" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O1092" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P1092" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1092" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R1092" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1092" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T1092" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U1092" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V1092" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="1093">
-      <c r="A1093" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1093" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1093" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1093" s="2" t="s">
-        <v>1409</v>
-      </c>
-      <c r="E1093" s="2" t="s">
-        <v>1364</v>
-      </c>
-      <c r="F1093" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="G1093" s="1" t="s">
-        <v>1201</v>
-      </c>
-      <c r="H1093" s="1" t="s">
-        <v>1202</v>
-      </c>
-      <c r="I1093" s="1" t="s">
-        <v>1202</v>
-      </c>
-      <c r="J1093" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1093" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1093" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1093" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1093" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O1093" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P1093" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1093" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R1093" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1093" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T1093" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U1093" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V1093" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="1094">
-      <c r="A1094" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1094" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1094" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1094" s="2" t="s">
-        <v>1410</v>
-      </c>
-      <c r="E1094" s="2" t="s">
-        <v>1364</v>
-      </c>
-      <c r="F1094" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G1094" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H1094" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I1094" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="J1094" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1094" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1094" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1094" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1094" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="O1094" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1094" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1094" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R1094" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1094" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T1094" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U1094" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V1094" s="2" t="s">
         <v>33</v>
       </c>
     </row>
